--- a/Frameworks/TestData/TestDataSheet.xlsx
+++ b/Frameworks/TestData/TestDataSheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium_19_6\Frameworks\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Selenium_19_6\GIT\GITJan31\Frameworks\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E60186D-60CC-408D-80A9-B9D5C1E9970C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC3A5CE-1820-4250-A194-F9B7967D4F6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5535" yWindow="2640" windowWidth="21600" windowHeight="11835" xr2:uid="{5709D10E-0EB0-4787-9C27-D6CAF861F004}"/>
   </bookViews>
@@ -425,7 +425,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
